--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
@@ -546,10 +546,10 @@
         <v>10.58654</v>
       </c>
       <c r="I2">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J2">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,10 +564,10 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
         <v>0.2247910615133333</v>
@@ -576,10 +576,10 @@
         <v>2.02311955362</v>
       </c>
       <c r="S2">
-        <v>0.08326035913605111</v>
+        <v>0.01414779397916906</v>
       </c>
       <c r="T2">
-        <v>0.08326035913605111</v>
+        <v>0.01414779397916906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,40 +608,40 @@
         <v>10.58654</v>
       </c>
       <c r="I3">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J3">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>0.7181661716733334</v>
+        <v>9.533166330895556</v>
       </c>
       <c r="R3">
-        <v>6.46349554506</v>
+        <v>85.79849697806</v>
       </c>
       <c r="S3">
-        <v>0.266001561495976</v>
+        <v>0.5999939335250724</v>
       </c>
       <c r="T3">
-        <v>0.266001561495976</v>
+        <v>0.5999939335250725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>10.58654</v>
       </c>
       <c r="I4">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J4">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>1.684579648653333</v>
+        <v>4.194049555002223</v>
       </c>
       <c r="R4">
-        <v>15.16121683788</v>
+        <v>37.74644599502</v>
       </c>
       <c r="S4">
-        <v>0.6239514400435356</v>
+        <v>0.2639631159848304</v>
       </c>
       <c r="T4">
-        <v>0.6239514400435356</v>
+        <v>0.2639631159848303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H5">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I5">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J5">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,22 +750,22 @@
         <v>0.191103</v>
       </c>
       <c r="O5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q5">
-        <v>0.006187129494333332</v>
+        <v>0.031204635561</v>
       </c>
       <c r="R5">
-        <v>0.055684165449</v>
+        <v>0.280841720049</v>
       </c>
       <c r="S5">
-        <v>0.00229165083456351</v>
+        <v>0.001963942659196415</v>
       </c>
       <c r="T5">
-        <v>0.00229165083456351</v>
+        <v>0.001963942659196415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H6">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I6">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J6">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N6">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q6">
-        <v>0.01976674282633334</v>
+        <v>1.323357695343</v>
       </c>
       <c r="R6">
-        <v>0.177900685437</v>
+        <v>11.910219258087</v>
       </c>
       <c r="S6">
-        <v>0.007321403687454256</v>
+        <v>0.08328886348245759</v>
       </c>
       <c r="T6">
-        <v>0.007321403687454257</v>
+        <v>0.08328886348245759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H7">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I7">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J7">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N7">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O7">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P7">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q7">
-        <v>0.04636622274733333</v>
+        <v>0.5822019212310001</v>
       </c>
       <c r="R7">
-        <v>0.417296004726</v>
+        <v>5.239817291079</v>
       </c>
       <c r="S7">
-        <v>0.01717358480241945</v>
+        <v>0.03664235036927409</v>
       </c>
       <c r="T7">
-        <v>0.01717358480241945</v>
+        <v>0.03664235036927409</v>
       </c>
     </row>
   </sheetData>
